--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H2">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>41.21828146321455</v>
+        <v>261.861864567885</v>
       </c>
       <c r="R2">
-        <v>41.21828146321455</v>
+        <v>2356.756781110965</v>
       </c>
       <c r="S2">
-        <v>0.0001696166727179789</v>
+        <v>0.0009259615872419508</v>
       </c>
       <c r="T2">
-        <v>0.0001696166727179789</v>
+        <v>0.0009259615872419508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H3">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>267.921542174478</v>
+        <v>926.3634582560402</v>
       </c>
       <c r="R3">
-        <v>267.921542174478</v>
+        <v>8337.271124304361</v>
       </c>
       <c r="S3">
-        <v>0.001102519535504199</v>
+        <v>0.003275684985995109</v>
       </c>
       <c r="T3">
-        <v>0.001102519535504199</v>
+        <v>0.003275684985995109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H4">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I4">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J4">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>76.37165657834721</v>
+        <v>362.266102034838</v>
       </c>
       <c r="R4">
-        <v>76.37165657834721</v>
+        <v>3260.394918313542</v>
       </c>
       <c r="S4">
-        <v>0.0003142757489862885</v>
+        <v>0.001280997885651168</v>
       </c>
       <c r="T4">
-        <v>0.0003142757489862885</v>
+        <v>0.001280997885651168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H5">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I5">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J5">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>77.48816340113167</v>
+        <v>268.078021943004</v>
       </c>
       <c r="R5">
-        <v>77.48816340113167</v>
+        <v>2412.702197487036</v>
       </c>
       <c r="S5">
-        <v>0.0003188702678654085</v>
+        <v>0.0009479423478200869</v>
       </c>
       <c r="T5">
-        <v>0.0003188702678654085</v>
+        <v>0.0009479423478200869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H6">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I6">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J6">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>75.10937370428127</v>
+        <v>271.884356043714</v>
       </c>
       <c r="R6">
-        <v>75.10937370428127</v>
+        <v>2446.959204393426</v>
       </c>
       <c r="S6">
-        <v>0.000309081349474047</v>
+        <v>0.0009614018073381142</v>
       </c>
       <c r="T6">
-        <v>0.000309081349474047</v>
+        <v>0.0009614018073381141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H7">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I7">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J7">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>25.91784515974031</v>
+        <v>96.29556935909402</v>
       </c>
       <c r="R7">
-        <v>25.91784515974031</v>
+        <v>866.6601242318461</v>
       </c>
       <c r="S7">
-        <v>0.0001066540987143835</v>
+        <v>0.0003405077650205102</v>
       </c>
       <c r="T7">
-        <v>0.0001066540987143835</v>
+        <v>0.0003405077650205101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H8">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J8">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>16832.62960155173</v>
+        <v>31483.63360650317</v>
       </c>
       <c r="R8">
-        <v>16832.62960155173</v>
+        <v>283352.7024585286</v>
       </c>
       <c r="S8">
-        <v>0.06926767746630601</v>
+        <v>0.1113282966747691</v>
       </c>
       <c r="T8">
-        <v>0.06926767746630601</v>
+        <v>0.1113282966747691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H9">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J9">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>109413.2002015738</v>
+        <v>111376.6135986004</v>
       </c>
       <c r="R9">
-        <v>109413.2002015738</v>
+        <v>1002389.522387404</v>
       </c>
       <c r="S9">
-        <v>0.4502444621855351</v>
+        <v>0.393835376065834</v>
       </c>
       <c r="T9">
-        <v>0.4502444621855351</v>
+        <v>0.393835376065834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H10">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I10">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J10">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>31188.48631249978</v>
+        <v>43555.22803345878</v>
       </c>
       <c r="R10">
-        <v>31188.48631249978</v>
+        <v>391997.0523011291</v>
       </c>
       <c r="S10">
-        <v>0.1283432275107735</v>
+        <v>0.1540142859255145</v>
       </c>
       <c r="T10">
-        <v>0.1283432275107735</v>
+        <v>0.1540142859255146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H11">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I11">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J11">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>31644.44287178304</v>
+        <v>32231.00177162931</v>
       </c>
       <c r="R11">
-        <v>31644.44287178304</v>
+        <v>290079.0159446638</v>
       </c>
       <c r="S11">
-        <v>0.1302195268552424</v>
+        <v>0.1139710419770538</v>
       </c>
       <c r="T11">
-        <v>0.1302195268552424</v>
+        <v>0.1139710419770538</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H12">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I12">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J12">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>30672.99805541423</v>
+        <v>32688.63705353049</v>
       </c>
       <c r="R12">
-        <v>30672.99805541423</v>
+        <v>294197.7334817744</v>
       </c>
       <c r="S12">
-        <v>0.1262219502549502</v>
+        <v>0.1155892718506797</v>
       </c>
       <c r="T12">
-        <v>0.1262219502549502</v>
+        <v>0.1155892718506797</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H13">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I13">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J13">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>10584.27164251441</v>
+        <v>11577.60954858466</v>
       </c>
       <c r="R13">
-        <v>10584.27164251441</v>
+        <v>104198.485937262</v>
       </c>
       <c r="S13">
-        <v>0.04355516230701537</v>
+        <v>0.04093922470064693</v>
       </c>
       <c r="T13">
-        <v>0.04355516230701537</v>
+        <v>0.04093922470064693</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H14">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I14">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J14">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>28.50036597107555</v>
+        <v>23.83372678282111</v>
       </c>
       <c r="R14">
-        <v>28.50036597107555</v>
+        <v>214.50354104539</v>
       </c>
       <c r="S14">
-        <v>0.0001172813876670912</v>
+        <v>8.427769930581411E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001172813876670912</v>
+        <v>8.42776993058141E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H15">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I15">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J15">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>185.2542544822553</v>
+        <v>84.3142761627289</v>
       </c>
       <c r="R15">
-        <v>185.2542544822553</v>
+        <v>758.82848546456</v>
       </c>
       <c r="S15">
-        <v>0.000762336738375975</v>
+        <v>0.0002981410871400762</v>
       </c>
       <c r="T15">
-        <v>0.000762336738375975</v>
+        <v>0.0002981410871400761</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H16">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I16">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J16">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>52.80715461761137</v>
+        <v>32.97216000819244</v>
       </c>
       <c r="R16">
-        <v>52.80715461761137</v>
+        <v>296.749440073732</v>
       </c>
       <c r="S16">
-        <v>0.0002173058541981376</v>
+        <v>0.000116591828544269</v>
       </c>
       <c r="T16">
-        <v>0.0002173058541981376</v>
+        <v>0.000116591828544269</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H17">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I17">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J17">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>53.57916286077305</v>
+        <v>24.39949911000622</v>
       </c>
       <c r="R17">
-        <v>53.57916286077305</v>
+        <v>219.595491990056</v>
       </c>
       <c r="S17">
-        <v>0.0002204827326333242</v>
+        <v>8.627830921883979E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002204827326333242</v>
+        <v>8.627830921883977E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H18">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I18">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J18">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>51.9343495759454</v>
+        <v>24.745937974444</v>
       </c>
       <c r="R18">
-        <v>51.9343495759454</v>
+        <v>222.713441769996</v>
       </c>
       <c r="S18">
-        <v>0.0002137141885137985</v>
+        <v>8.750334090234382E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002137141885137985</v>
+        <v>8.750334090234381E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H19">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I19">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J19">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N19">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q19">
-        <v>17.92088476307524</v>
+        <v>8.764477005035111</v>
       </c>
       <c r="R19">
-        <v>17.92088476307524</v>
+        <v>78.88029304531599</v>
       </c>
       <c r="S19">
-        <v>7.374593839842463E-05</v>
+        <v>3.099179428940487E-05</v>
       </c>
       <c r="T19">
-        <v>7.374593839842463E-05</v>
+        <v>3.099179428940487E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H20">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I20">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J20">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N20">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q20">
-        <v>5.464738034222502</v>
+        <v>54.89577812137667</v>
       </c>
       <c r="R20">
-        <v>5.464738034222502</v>
+        <v>494.06200309239</v>
       </c>
       <c r="S20">
-        <v>2.248785368374554E-05</v>
+        <v>0.0001941152520472273</v>
       </c>
       <c r="T20">
-        <v>2.248785368374554E-05</v>
+        <v>0.0001941152520472273</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H21">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I21">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J21">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N21">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q21">
-        <v>35.52115686858706</v>
+        <v>194.1994988391733</v>
       </c>
       <c r="R21">
-        <v>35.52115686858706</v>
+        <v>1747.79548955256</v>
       </c>
       <c r="S21">
-        <v>0.00014617252891827</v>
+        <v>0.0006867028021947636</v>
       </c>
       <c r="T21">
-        <v>0.00014617252891827</v>
+        <v>0.0006867028021947636</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H22">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I22">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J22">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N22">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q22">
-        <v>10.125388095395</v>
+        <v>75.94416083081467</v>
       </c>
       <c r="R22">
-        <v>10.125388095395</v>
+        <v>683.497447477332</v>
       </c>
       <c r="S22">
-        <v>4.166681816300051E-05</v>
+        <v>0.0002685437828860682</v>
       </c>
       <c r="T22">
-        <v>4.166681816300051E-05</v>
+        <v>0.0002685437828860683</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H23">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I23">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J23">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N23">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q23">
-        <v>10.27341506506341</v>
+        <v>56.19891096431734</v>
       </c>
       <c r="R23">
-        <v>10.27341506506341</v>
+        <v>505.790198678856</v>
       </c>
       <c r="S23">
-        <v>4.227596151338711E-05</v>
+        <v>0.0001987232195251478</v>
       </c>
       <c r="T23">
-        <v>4.227596151338711E-05</v>
+        <v>0.0001987232195251479</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H24">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I24">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J24">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N24">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q24">
-        <v>9.958034072204784</v>
+        <v>56.996857135644</v>
       </c>
       <c r="R24">
-        <v>9.958034072204784</v>
+        <v>512.971714220796</v>
       </c>
       <c r="S24">
-        <v>4.097814237226368E-05</v>
+        <v>0.0002015448121406076</v>
       </c>
       <c r="T24">
-        <v>4.097814237226368E-05</v>
+        <v>0.0002015448121406076</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H25">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I25">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J25">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N25">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q25">
-        <v>3.43619940428435</v>
+        <v>20.18705632579067</v>
       </c>
       <c r="R25">
-        <v>3.43619940428435</v>
+        <v>181.683506932116</v>
       </c>
       <c r="S25">
-        <v>1.414024770223301E-05</v>
+        <v>7.138282142769194E-05</v>
       </c>
       <c r="T25">
-        <v>1.414024770223301E-05</v>
+        <v>7.138282142769194E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>64.5566556543436</v>
+        <v>0.4452746666666667</v>
       </c>
       <c r="H26">
-        <v>64.5566556543436</v>
+        <v>1.335824</v>
       </c>
       <c r="I26">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="J26">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N26">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q26">
-        <v>850.8977449321793</v>
+        <v>10.87981374672889</v>
       </c>
       <c r="R26">
-        <v>850.8977449321793</v>
+        <v>97.91832372056001</v>
       </c>
       <c r="S26">
-        <v>0.003501515327547866</v>
+        <v>3.847177068887869E-05</v>
       </c>
       <c r="T26">
-        <v>0.003501515327547866</v>
+        <v>3.847177068887869E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>64.5566556543436</v>
+        <v>0.4452746666666667</v>
       </c>
       <c r="H27">
-        <v>64.5566556543436</v>
+        <v>1.335824</v>
       </c>
       <c r="I27">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="J27">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N27">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q27">
-        <v>5530.891341466321</v>
+        <v>38.48846759047112</v>
       </c>
       <c r="R27">
-        <v>5530.891341466321</v>
+        <v>346.3962083142401</v>
       </c>
       <c r="S27">
-        <v>0.02276008007130129</v>
+        <v>0.0001360978720570594</v>
       </c>
       <c r="T27">
-        <v>0.02276008007130129</v>
+        <v>0.0001360978720570594</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>64.5566556543436</v>
+        <v>0.4452746666666667</v>
       </c>
       <c r="H28">
-        <v>64.5566556543436</v>
+        <v>1.335824</v>
       </c>
       <c r="I28">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="J28">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N28">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q28">
-        <v>1576.593396239632</v>
+        <v>15.05140018534756</v>
       </c>
       <c r="R28">
-        <v>1576.593396239632</v>
+        <v>135.462601668128</v>
       </c>
       <c r="S28">
-        <v>0.006487813577040123</v>
+        <v>5.322278762826568E-05</v>
       </c>
       <c r="T28">
-        <v>0.006487813577040123</v>
+        <v>5.322278762826569E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>64.5566556543436</v>
+        <v>0.4452746666666667</v>
       </c>
       <c r="H29">
-        <v>64.5566556543436</v>
+        <v>1.335824</v>
       </c>
       <c r="I29">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="J29">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N29">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q29">
-        <v>1599.642225642104</v>
+        <v>11.13808210731378</v>
       </c>
       <c r="R29">
-        <v>1599.642225642104</v>
+        <v>100.242738965824</v>
       </c>
       <c r="S29">
-        <v>0.006582661436157699</v>
+        <v>3.938502539855621E-05</v>
       </c>
       <c r="T29">
-        <v>0.006582661436157699</v>
+        <v>3.938502539855622E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>64.5566556543436</v>
+        <v>0.4452746666666667</v>
       </c>
       <c r="H30">
-        <v>64.5566556543436</v>
+        <v>1.335824</v>
       </c>
       <c r="I30">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="J30">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N30">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q30">
-        <v>1550.535210093085</v>
+        <v>11.296227342176</v>
       </c>
       <c r="R30">
-        <v>1550.535210093085</v>
+        <v>101.666046079584</v>
       </c>
       <c r="S30">
-        <v>0.006380581963437124</v>
+        <v>3.994423784031217E-05</v>
       </c>
       <c r="T30">
-        <v>0.006380581963437124</v>
+        <v>3.994423784031217E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.335824</v>
+      </c>
+      <c r="I31">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J31">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N31">
+        <v>26.955586</v>
+      </c>
+      <c r="O31">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P31">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q31">
+        <v>4.00087985698489</v>
+      </c>
+      <c r="R31">
+        <v>36.007918712864</v>
+      </c>
+      <c r="S31">
+        <v>1.414738671036111E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.414738671036111E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H32">
+        <v>249.24451</v>
+      </c>
+      <c r="I32">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J32">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>24.43393833333333</v>
+      </c>
+      <c r="N32">
+        <v>73.301815</v>
+      </c>
+      <c r="O32">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="P32">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="Q32">
+        <v>2030.008329087294</v>
+      </c>
+      <c r="R32">
+        <v>18270.07496178565</v>
+      </c>
+      <c r="S32">
+        <v>0.007178249256026189</v>
+      </c>
+      <c r="T32">
+        <v>0.00717824925602619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H33">
+        <v>249.24451</v>
+      </c>
+      <c r="I33">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J33">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>86.43758666666668</v>
+      </c>
+      <c r="N33">
+        <v>259.31276</v>
+      </c>
+      <c r="O33">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="P33">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="Q33">
+        <v>7181.364644771956</v>
+      </c>
+      <c r="R33">
+        <v>64632.2818029476</v>
+      </c>
+      <c r="S33">
+        <v>0.02539379995635985</v>
+      </c>
+      <c r="T33">
+        <v>0.02539379995635985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H34">
+        <v>249.24451</v>
+      </c>
+      <c r="I34">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J34">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>33.80250733333333</v>
+      </c>
+      <c r="N34">
+        <v>101.407522</v>
+      </c>
+      <c r="O34">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="P34">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="Q34">
+        <v>2808.363125689357</v>
+      </c>
+      <c r="R34">
+        <v>25275.26813120422</v>
+      </c>
+      <c r="S34">
+        <v>0.009930565421224009</v>
+      </c>
+      <c r="T34">
+        <v>0.009930565421224009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H35">
+        <v>249.24451</v>
+      </c>
+      <c r="I35">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J35">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>25.01395866666667</v>
+      </c>
+      <c r="N35">
+        <v>75.041876</v>
+      </c>
+      <c r="O35">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="P35">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="Q35">
+        <v>2078.197290344529</v>
+      </c>
+      <c r="R35">
+        <v>18703.77561310076</v>
+      </c>
+      <c r="S35">
+        <v>0.007348648741750932</v>
+      </c>
+      <c r="T35">
+        <v>0.007348648741750933</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="H31">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="I31">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="J31">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="N31">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="O31">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="P31">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="Q31">
-        <v>535.0401622058438</v>
-      </c>
-      <c r="R31">
-        <v>535.0401622058438</v>
-      </c>
-      <c r="S31">
-        <v>0.002201734979291526</v>
-      </c>
-      <c r="T31">
-        <v>0.002201734979291526</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H36">
+        <v>249.24451</v>
+      </c>
+      <c r="I36">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J36">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.369122</v>
+      </c>
+      <c r="N36">
+        <v>76.107366</v>
+      </c>
+      <c r="O36">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="P36">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="Q36">
+        <v>2107.70479400674</v>
+      </c>
+      <c r="R36">
+        <v>18969.34314606066</v>
+      </c>
+      <c r="S36">
+        <v>0.007452989306848854</v>
+      </c>
+      <c r="T36">
+        <v>0.007452989306848854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H37">
+        <v>249.24451</v>
+      </c>
+      <c r="I37">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J37">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N37">
+        <v>26.955586</v>
+      </c>
+      <c r="O37">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P37">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q37">
+        <v>746.5035360369844</v>
+      </c>
+      <c r="R37">
+        <v>6718.53182433286</v>
+      </c>
+      <c r="S37">
+        <v>0.002639687914279475</v>
+      </c>
+      <c r="T37">
+        <v>0.002639687914279475</v>
       </c>
     </row>
   </sheetData>
